--- a/log.xlsx
+++ b/log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksb02\Documents\GitHub\predict_gg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E342DB-47FB-4AE2-83B9-DE18A55564E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F4C4DC-EC40-46D4-A965-25DF0BEEC200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -537,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CP196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CH1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="CQ1" sqref="CQ1"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="CK1" sqref="CK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -561,6 +561,7 @@
     <col min="18" max="19" width="18.69921875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="30.09765625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.8984375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="25" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="28.69921875" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22.796875" bestFit="1" customWidth="1"/>
